--- a/others/new_Result.xlsx
+++ b/others/new_Result.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E3EC37-46DB-4950-9CE1-810A7BED0DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1322361-6DCC-488B-B1DD-64A99DA3B87D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
-  <si>
-    <t>CNV单目标分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="163">
   <si>
     <t>Dice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,15 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8885±0.0038</t>
-  </si>
-  <si>
-    <t>0.8575±0.0090</t>
-  </si>
-  <si>
-    <t>0.9092±0.0107</t>
-  </si>
-  <si>
     <t>0.9995±0.0001</t>
   </si>
   <si>
@@ -219,6 +206,532 @@
   </si>
   <si>
     <t>backbone+ppm+tuition_0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backbone+ppm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8863±0.0062</t>
+  </si>
+  <si>
+    <t>0.8548±0.0047</t>
+  </si>
+  <si>
+    <t>0.9195±0.0214</t>
+  </si>
+  <si>
+    <t>0.8899±0.0095</t>
+  </si>
+  <si>
+    <t>0.8587±0.0142</t>
+  </si>
+  <si>
+    <t>0.9134±0.0162</t>
+  </si>
+  <si>
+    <t>0.9995±0.0000</t>
+  </si>
+  <si>
+    <t>CNV单目标分割（3通道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNV单目标分割（单通道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8432±0.0258</t>
+  </si>
+  <si>
+    <t>0.8091±0.0315</t>
+  </si>
+  <si>
+    <t>0.9007±0.0124</t>
+  </si>
+  <si>
+    <t>0.8069±0.0926</t>
+  </si>
+  <si>
+    <t>0.7723±0.0979</t>
+  </si>
+  <si>
+    <t>0.8804±0.0209</t>
+  </si>
+  <si>
+    <t>0.9990±0.0009</t>
+  </si>
+  <si>
+    <t>0.8848±0.0284</t>
+  </si>
+  <si>
+    <t>0.8540±0.0315</t>
+  </si>
+  <si>
+    <t>0.9127±0.0199</t>
+  </si>
+  <si>
+    <t>0.8908±0.0105</t>
+  </si>
+  <si>
+    <t>0.8597±0.0136</t>
+  </si>
+  <si>
+    <t>0.9128±0.0138</t>
+  </si>
+  <si>
+    <t>0.9994±0.0002</t>
+  </si>
+  <si>
+    <t>0.8925±0.0084</t>
+  </si>
+  <si>
+    <t>0.8610±0.0133</t>
+  </si>
+  <si>
+    <t>0.9044±0.0133</t>
+  </si>
+  <si>
+    <t>0.9996±0.0001</t>
+  </si>
+  <si>
+    <t>0.8966±0.0106</t>
+  </si>
+  <si>
+    <t>0.8663±0.0141</t>
+  </si>
+  <si>
+    <t>0.9211±0.0153</t>
+  </si>
+  <si>
+    <t>0.9014±0.0097</t>
+  </si>
+  <si>
+    <t>0.8710±0.0118</t>
+  </si>
+  <si>
+    <t>0.9188±0.0239</t>
+  </si>
+  <si>
+    <t>0.8944±0.0125</t>
+  </si>
+  <si>
+    <t>0.8650±0.0158</t>
+  </si>
+  <si>
+    <t>0.9089±0.0166</t>
+  </si>
+  <si>
+    <t>0.9996±0.0000</t>
+  </si>
+  <si>
+    <t>R2UNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7577±0.0562</t>
+  </si>
+  <si>
+    <t>0.7389±0.0479</t>
+  </si>
+  <si>
+    <t>0.7853±0.0765</t>
+  </si>
+  <si>
+    <t>0.9996±0.0005</t>
+  </si>
+  <si>
+    <t>0.8926±0.0138</t>
+  </si>
+  <si>
+    <t>0.8616±0.0182</t>
+  </si>
+  <si>
+    <t>0.9240±0.0154</t>
+  </si>
+  <si>
+    <t>0.9993±0.0002</t>
+  </si>
+  <si>
+    <t>0.8882±0.0101</t>
+  </si>
+  <si>
+    <t>0.8558±0.0163</t>
+  </si>
+  <si>
+    <t>0.9143±0.0204</t>
+  </si>
+  <si>
+    <t>backbone+pmp(1:0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backbone+pmp(1:1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8772±0.0126</t>
+  </si>
+  <si>
+    <t>0.8452±0.0180</t>
+  </si>
+  <si>
+    <t>0.9165±0.0207</t>
+  </si>
+  <si>
+    <t>0.9992±0.0002</t>
+  </si>
+  <si>
+    <t>0.8917±0.0111</t>
+  </si>
+  <si>
+    <t>0.8596±0.0171</t>
+  </si>
+  <si>
+    <t>0.9093±0.0245</t>
+  </si>
+  <si>
+    <t>backbone+pmp+tuition_0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8829±0.0161</t>
+  </si>
+  <si>
+    <t>0.8504±0.0218</t>
+  </si>
+  <si>
+    <t>0.9083±0.0172</t>
+  </si>
+  <si>
+    <t>MFNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8684±0.0152</t>
+  </si>
+  <si>
+    <t>0.8360±0.0204</t>
+  </si>
+  <si>
+    <t>0.9114±0.0166</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>UNet</t>
+  </si>
+  <si>
+    <t>0.8225±0.06</t>
+  </si>
+  <si>
+    <t>0.7888±0.07</t>
+  </si>
+  <si>
+    <t>0.8955±0.03</t>
+  </si>
+  <si>
+    <t>PSPNet</t>
+  </si>
+  <si>
+    <t>0.8829±0.02</t>
+  </si>
+  <si>
+    <t>0.8504±0.02</t>
+  </si>
+  <si>
+    <t>0.9083±0.02</t>
+  </si>
+  <si>
+    <t>CPFNet</t>
+  </si>
+  <si>
+    <t>0.8874±0.01</t>
+  </si>
+  <si>
+    <t>0.8545±0.02</t>
+  </si>
+  <si>
+    <t>0.9138±0.01</t>
+  </si>
+  <si>
+    <t>DeeplabV3+</t>
+  </si>
+  <si>
+    <t>0.8583±0.02</t>
+  </si>
+  <si>
+    <t>0.8244±0.03</t>
+  </si>
+  <si>
+    <t>0.9043±0.01</t>
+  </si>
+  <si>
+    <t>CENet</t>
+  </si>
+  <si>
+    <t>0.8478±0.06</t>
+  </si>
+  <si>
+    <t>0.8156±0.06</t>
+  </si>
+  <si>
+    <t>0.9231±0.02</t>
+  </si>
+  <si>
+    <t>MFNet</t>
+  </si>
+  <si>
+    <t>0.8684±0.02</t>
+  </si>
+  <si>
+    <t>0.8360±0.02</t>
+  </si>
+  <si>
+    <t>0.9114±0.02</t>
+  </si>
+  <si>
+    <r>
+      <t>0.8826</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8499</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.9191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8863</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8548</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.9195</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8951</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8639</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.9190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+  </si>
+  <si>
+    <t>Backbone</t>
+  </si>
+  <si>
+    <t>Backbone+ppm</t>
+  </si>
+  <si>
+    <t>Our Proposed method</t>
+  </si>
+  <si>
+    <t>SPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9995±0.0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +768,59 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Time"/>
     </font>
   </fonts>
   <fills count="2">
@@ -404,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,9 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +1025,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,6 +1080,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +1397,7 @@
       <selection activeCell="J8" sqref="A5:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
@@ -806,9 +1411,9 @@
     <col min="29" max="33" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -848,7 +1453,7 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -888,7 +1493,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -928,7 +1533,7 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -968,13 +1573,13 @@
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="30" customHeight="1">
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="8"/>
       <c r="O5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -995,26 +1600,26 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="O6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="28"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -1022,25 +1627,25 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -1049,23 +1654,23 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" customHeight="1">
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -1074,25 +1679,25 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" customHeight="1">
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -1101,23 +1706,23 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -1126,7 +1731,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1141,20 +1746,20 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="29"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
@@ -1163,12 +1768,12 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+    <row r="12" spans="1:38" ht="15" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1181,15 +1786,15 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="26"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -1198,12 +1803,12 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+    <row r="13" spans="1:38" ht="15" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1233,7 +1838,7 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1265,12 +1870,12 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1297,12 +1902,12 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1329,7 +1934,7 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1361,11 +1966,11 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+    <row r="18" spans="1:33" ht="15" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1391,11 +1996,11 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+    <row r="19" spans="1:33" ht="15" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1421,7 +2026,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="15" customHeight="1">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1447,7 +2052,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15" customHeight="1">
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -1468,7 +2073,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" customHeight="1">
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1489,7 +2094,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15" customHeight="1">
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1510,7 +2115,7 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15" customHeight="1">
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -1531,7 +2136,7 @@
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="15" customHeight="1">
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -1552,7 +2157,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15" customHeight="1">
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -1573,21 +2178,21 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+    <row r="27" spans="1:33" ht="15" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -1608,21 +2213,21 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+    <row r="28" spans="1:33" ht="15" customHeight="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -1643,7 +2248,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="15" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1678,21 +2283,21 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+    <row r="30" spans="1:33" ht="15" customHeight="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -1713,21 +2318,21 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+    <row r="31" spans="1:33" ht="15" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -1748,7 +2353,7 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
     </row>
-    <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="15" customHeight="1">
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -1769,7 +2374,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="15" customHeight="1">
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -1790,7 +2395,7 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
     </row>
-    <row r="34" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="15" customHeight="1">
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -1811,7 +2416,7 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="15" customHeight="1">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -1832,7 +2437,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
     </row>
-    <row r="36" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="15" customHeight="1">
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -1853,7 +2458,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
     </row>
-    <row r="37" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="15" customHeight="1">
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -1874,7 +2479,7 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
     </row>
-    <row r="38" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="15" customHeight="1">
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -1895,162 +2500,162 @@
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
     </row>
-    <row r="39" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-    </row>
-    <row r="48" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-    </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-    </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-    </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+    <row r="39" spans="1:33" ht="15" customHeight="1"/>
+    <row r="40" spans="1:33" ht="15" customHeight="1"/>
+    <row r="41" spans="1:33" ht="15" customHeight="1"/>
+    <row r="42" spans="1:33" ht="15" customHeight="1"/>
+    <row r="43" spans="1:33" ht="15" customHeight="1"/>
+    <row r="44" spans="1:33" ht="15" customHeight="1"/>
+    <row r="45" spans="1:33" ht="15" customHeight="1"/>
+    <row r="46" spans="1:33" ht="15" customHeight="1"/>
+    <row r="47" spans="1:33" ht="15" customHeight="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+    </row>
+    <row r="48" spans="1:33" ht="15" customHeight="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="5"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+    <row r="53" spans="1:19" ht="15" customHeight="1">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2071,49 +2676,49 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+    <row r="55" spans="1:19" ht="15" customHeight="1">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+    <row r="56" spans="1:19" ht="15" customHeight="1">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2134,61 +2739,61 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+    <row r="58" spans="1:19" ht="15" customHeight="1">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="5"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+    <row r="59" spans="1:19" ht="15" customHeight="1">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:19" ht="15" customHeight="1"/>
+    <row r="61" spans="1:19" ht="15" customHeight="1"/>
+    <row r="62" spans="1:19" ht="15" customHeight="1"/>
+    <row r="63" spans="1:19" ht="15" customHeight="1"/>
+    <row r="64" spans="1:19" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="A55:E56"/>
@@ -2238,11 +2843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBBDD5-C379-4010-B330-FEF59647FB41}">
   <dimension ref="A1:AC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
@@ -2251,101 +2856,101 @@
     <col min="25" max="29" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="19"/>
+    <row r="1" spans="1:29" ht="13.8" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="12"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="20"/>
+    <row r="2" spans="1:29" ht="13.8" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="13"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="20"/>
+    <row r="3" spans="1:29" ht="13.8" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="13"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="20"/>
+    <row r="4" spans="1:29" ht="13.8" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="13"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2368,7 +2973,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2391,7 +2996,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2414,7 +3019,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2437,25 +3042,25 @@
       <c r="T8" s="13"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+    <row r="9" spans="1:29">
+      <c r="A9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="T9" s="13"/>
@@ -2469,23 +3074,23 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+    <row r="10" spans="1:29">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="T10" s="13"/>
@@ -2499,25 +3104,25 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+    <row r="11" spans="1:29">
+      <c r="A11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -2532,23 +3137,23 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+    <row r="12" spans="1:29">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -2563,32 +3168,43 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:29">
+      <c r="A13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
+      <c r="R13" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" s="47" t="s">
+        <v>161</v>
+      </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -2597,29 +3213,40 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+    <row r="14" spans="1:29">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
+      <c r="R14" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="43"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
@@ -2627,101 +3254,121 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="21" t="s">
+    <row r="15" spans="1:29" ht="13.8" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="21" t="s">
+      <c r="I15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="O15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="P15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="21" t="s">
-        <v>4</v>
-      </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
+      <c r="R15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="V15" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="W15" s="45"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+    <row r="16" spans="1:29">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="R16" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="V16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="44"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -2731,118 +3378,168 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="R17" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="V17" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="44"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+      <c r="R18" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="V18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="44"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
+    <row r="19" spans="1:27">
+      <c r="A19" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="21" t="s">
+      <c r="I19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="O19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="P19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="R19" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="V19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" s="44"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
+    <row r="20" spans="1:27">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="6" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="V20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="44"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -2851,67 +3548,89 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="R21" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="U21" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="V21" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="W21" s="44"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="R22" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="V22" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" s="43"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="18" t="s">
+    <row r="23" spans="1:27">
+      <c r="A23" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="G23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="H23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
+      <c r="I23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="P23" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -2924,30 +3643,38 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+    <row r="24" spans="1:27">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
@@ -2960,7 +3687,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -2980,7 +3707,7 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -3000,40 +3727,42 @@
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="18" t="s">
+    <row r="27" spans="1:27">
+      <c r="A27" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="H27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
+      <c r="I27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="O27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="P27" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -3046,43 +3775,51 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+    <row r="28" spans="1:27">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -3091,18 +3828,18 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="42"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3111,100 +3848,110 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="17" t="s">
+    <row r="31" spans="1:27">
+      <c r="A31" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="H31" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
+      <c r="I31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="O31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="P31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
+    <row r="32" spans="1:27">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
       <c r="M32" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="R32" s="41"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3213,18 +3960,18 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3233,51 +3980,51 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="17" t="s">
+    <row r="35" spans="1:27">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="G35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="H35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="I35" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="35"/>
       <c r="M35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="O35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="P35" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
@@ -3290,30 +4037,30 @@
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
+    <row r="36" spans="1:27">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
@@ -3326,7 +4073,7 @@
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -3346,7 +4093,7 @@
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -3366,31 +4113,43 @@
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="17" t="s">
+    <row r="39" spans="1:27">
+      <c r="A39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="G39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="H39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="I39" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -3402,35 +4161,51 @@
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+    <row r="40" spans="1:27">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -3440,17 +4215,17 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3460,43 +4235,53 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+    <row r="43" spans="1:27">
+      <c r="A43" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="H43" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="I43" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -3508,31 +4293,39 @@
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
+    <row r="44" spans="1:27">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -3544,7 +4337,7 @@
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -3564,7 +4357,7 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -3584,33 +4377,41 @@
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="1:27">
+      <c r="A47" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="G47" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="H47" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -3622,27 +4423,27 @@
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+    <row r="48" spans="1:27">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -3658,7 +4459,7 @@
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -3678,7 +4479,7 @@
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -3698,33 +4499,39 @@
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="22" t="s">
+    <row r="51" spans="1:29">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="G51" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="H51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
@@ -3736,19 +4543,19 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
+    <row r="52" spans="1:29">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -3764,7 +4571,7 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -3784,7 +4591,7 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -3804,38 +4611,38 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
+    <row r="55" spans="1:29">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="G55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="H55" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="32"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N55" s="17" t="s">
+      <c r="O55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O55" s="17" t="s">
+      <c r="P55" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="P55" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -3848,19 +4655,19 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
+    <row r="56" spans="1:29">
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="38"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -3876,7 +4683,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29">
       <c r="J57" s="3"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
@@ -3889,7 +4696,7 @@
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29">
       <c r="J58" s="3"/>
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
@@ -3902,7 +4709,7 @@
       <c r="AB58" s="13"/>
       <c r="AC58" s="13"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29">
       <c r="J59" s="3"/>
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
@@ -3915,7 +4722,25 @@
       <c r="AB59" s="13"/>
       <c r="AC59" s="13"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29">
+      <c r="A60" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
@@ -3927,7 +4752,23 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
@@ -3939,13 +4780,27 @@
       <c r="AB61" s="13"/>
       <c r="AC61" s="13"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
+    <row r="62" spans="1:29">
+      <c r="A62" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -3960,13 +4815,23 @@
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
+    <row r="63" spans="1:29">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -3981,13 +4846,43 @@
       <c r="AB63" s="13"/>
       <c r="AC63" s="13"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
+    <row r="64" spans="1:29">
+      <c r="A64" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -4002,13 +4897,39 @@
       <c r="AB64" s="13"/>
       <c r="AC64" s="13"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+    <row r="65" spans="1:29">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -4023,13 +4944,15 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
+    <row r="66" spans="1:29">
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -4044,22 +4967,12 @@
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
+    <row r="67" spans="1:29">
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="3"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
@@ -4074,22 +4987,43 @@
       <c r="AB67" s="13"/>
       <c r="AC67" s="13"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
+    <row r="68" spans="1:29">
+      <c r="A68" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P68" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -4104,22 +5038,39 @@
       <c r="AB68" s="13"/>
       <c r="AC68" s="13"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
+    <row r="69" spans="1:29">
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
@@ -4134,18 +5085,11 @@
       <c r="AB69" s="13"/>
       <c r="AC69" s="13"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+    <row r="70" spans="1:29">
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -4164,23 +5108,11 @@
       <c r="AB70" s="13"/>
       <c r="AC70" s="13"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
+    <row r="71" spans="1:29">
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
@@ -4195,23 +5127,41 @@
       <c r="AB71" s="13"/>
       <c r="AC71" s="13"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
+    <row r="72" spans="1:29">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P72" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
@@ -4226,23 +5176,31 @@
       <c r="AB72" s="13"/>
       <c r="AC72" s="13"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
+    <row r="73" spans="1:29">
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
@@ -4257,19 +5215,11 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+    <row r="74" spans="1:29">
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
@@ -4288,81 +5238,91 @@
       <c r="AB74" s="13"/>
       <c r="AC74" s="13"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
+    <row r="75" spans="1:29">
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
+    <row r="76" spans="1:29">
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P76" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
+    <row r="77" spans="1:29">
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+    <row r="78" spans="1:29">
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -4376,81 +5336,91 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
+    <row r="79" spans="1:29">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+    <row r="80" spans="1:29">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P80" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
+    <row r="81" spans="1:20">
+      <c r="A81" s="36"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+    <row r="82" spans="1:20">
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -4464,81 +5434,91 @@
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
+    <row r="83" spans="1:20">
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
+    <row r="84" spans="1:20">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O84" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P84" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+    <row r="85" spans="1:20">
+      <c r="A85" s="36"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+    <row r="86" spans="1:20">
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -4552,15 +5532,7 @@
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+    <row r="87" spans="1:20">
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -4574,58 +5546,66 @@
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
+    <row r="88" spans="1:20">
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O88" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="3"/>
+    <row r="89" spans="1:20">
+      <c r="A89" s="36"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+    <row r="90" spans="1:20">
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -4633,20 +5613,12 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
-      <c r="P90" s="15"/>
+      <c r="P90" s="7"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+    <row r="91" spans="1:20">
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -4659,49 +5631,69 @@
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+    <row r="92" spans="1:20">
+      <c r="A92" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="33"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O92" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P92" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="36"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="36"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:20">
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -4709,16 +5701,9 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="1:20">
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -4726,50 +5711,71 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" s="33"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O96" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P96" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="36"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="1:16">
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -4777,16 +5783,9 @@
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="P98" s="7"/>
+    </row>
+    <row r="99" spans="1:16">
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -4794,50 +5793,63 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="33"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O100" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P100" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="36"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="1:16">
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -4845,16 +5857,9 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="P102" s="7"/>
+    </row>
+    <row r="103" spans="1:16">
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -4862,42 +5867,61 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="7"/>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="33"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O104" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P104" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="36"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4914,7 +5938,7 @@
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4931,7 +5955,7 @@
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4948,7 +5972,7 @@
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4965,7 +5989,7 @@
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4982,7 +6006,7 @@
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4999,7 +6023,7 @@
       <c r="N111" s="7"/>
       <c r="O111" s="7"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -5016,7 +6040,7 @@
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -5033,7 +6057,7 @@
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -5050,7 +6074,7 @@
       <c r="N114" s="7"/>
       <c r="O114" s="7"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5067,7 +6091,7 @@
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5084,7 +6108,7 @@
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5101,7 +6125,7 @@
       <c r="N117" s="7"/>
       <c r="O117" s="7"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5118,7 +6142,7 @@
       <c r="N118" s="7"/>
       <c r="O118" s="7"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5135,7 +6159,7 @@
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -5152,7 +6176,7 @@
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -5169,7 +6193,7 @@
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -5186,7 +6210,7 @@
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -5203,7 +6227,7 @@
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -5220,7 +6244,7 @@
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -5231,7 +6255,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -5242,7 +6266,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -5253,7 +6277,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -5264,7 +6288,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -5275,7 +6299,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -5286,7 +6310,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -5297,7 +6321,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -5308,7 +6332,7 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -5319,7 +6343,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -5330,7 +6354,7 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -5341,7 +6365,7 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5352,7 +6376,7 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -5363,7 +6387,7 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -5374,7 +6398,7 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -5385,7 +6409,7 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -5396,7 +6420,7 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5407,7 +6431,7 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5418,7 +6442,7 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5429,7 +6453,7 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5440,7 +6464,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5452,27 +6476,16 @@
       <c r="I145" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="52">
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A51:D52"/>
     <mergeCell ref="A1:R4"/>
     <mergeCell ref="I27:L28"/>
     <mergeCell ref="I23:L24"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="I43:L44"/>
-    <mergeCell ref="I47:L48"/>
-    <mergeCell ref="I51:L52"/>
-    <mergeCell ref="I55:L56"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="I31:L32"/>
-    <mergeCell ref="I35:L36"/>
     <mergeCell ref="A9:P10"/>
     <mergeCell ref="A13:H14"/>
     <mergeCell ref="I13:P14"/>
@@ -5480,6 +6493,42 @@
     <mergeCell ref="I19:L20"/>
     <mergeCell ref="A15:D16"/>
     <mergeCell ref="I15:L16"/>
+    <mergeCell ref="A60:P61"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="I31:L32"/>
+    <mergeCell ref="I35:L36"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="I43:L44"/>
+    <mergeCell ref="I47:L48"/>
+    <mergeCell ref="I51:L52"/>
+    <mergeCell ref="I55:L56"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A62:H63"/>
+    <mergeCell ref="I62:P63"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="I64:L65"/>
+    <mergeCell ref="A68:D69"/>
+    <mergeCell ref="I68:L69"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="I72:L73"/>
+    <mergeCell ref="A76:D77"/>
+    <mergeCell ref="I76:L77"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="I80:L81"/>
+    <mergeCell ref="A84:D85"/>
+    <mergeCell ref="I84:L85"/>
+    <mergeCell ref="A88:D89"/>
+    <mergeCell ref="I88:L89"/>
+    <mergeCell ref="A92:D93"/>
+    <mergeCell ref="I92:L93"/>
+    <mergeCell ref="A96:D97"/>
+    <mergeCell ref="I96:L97"/>
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="I100:L101"/>
+    <mergeCell ref="A104:D105"/>
+    <mergeCell ref="I104:L105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
